--- a/3DCard/Assets/Editor/ExcelToSO/配置表.xlsx
+++ b/3DCard/Assets/Editor/ExcelToSO/配置表.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="卡牌配置" sheetId="1" r:id="rId1"/>
-    <sheet name="卡牌组合" sheetId="2" r:id="rId2"/>
+    <sheet name="可交互物体编号" sheetId="3" r:id="rId2"/>
+    <sheet name="交互组合" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>卡牌名称</t>
   </si>
@@ -42,28 +43,19 @@
     <t>卡牌描述</t>
   </si>
   <si>
-    <t>心脏</t>
+    <t>null</t>
   </si>
   <si>
     <t>E_Entity</t>
   </si>
   <si>
-    <t>也许心脏碎了你就死了</t>
-  </si>
-  <si>
-    <t>灯</t>
-  </si>
-  <si>
-    <t>能够照亮黑暗</t>
-  </si>
-  <si>
-    <t>木方块</t>
-  </si>
-  <si>
-    <t>undone</t>
-  </si>
-  <si>
-    <t>门</t>
+    <t>空</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>Ek = 1/2mv^2</t>
   </si>
   <si>
     <t>循环</t>
@@ -85,6 +77,60 @@
   </si>
   <si>
     <t>投掷</t>
+  </si>
+  <si>
+    <t>恐惧</t>
+  </si>
+  <si>
+    <t>E_Condition</t>
+  </si>
+  <si>
+    <t>造成的伤害减少1点</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>DragedCard_ID</t>
+  </si>
+  <si>
+    <t>SelectedCard_ID</t>
+  </si>
+  <si>
+    <t>PointInteractableObj_ID</t>
+  </si>
+  <si>
+    <t>Func_ID</t>
+  </si>
+  <si>
+    <t>0_空</t>
+  </si>
+  <si>
+    <t>1_石头</t>
+  </si>
+  <si>
+    <t>10002_桌子</t>
+  </si>
+  <si>
+    <t>1_放下卡牌手牌到桌子上</t>
+  </si>
+  <si>
+    <t>2_放回卡牌从桌牌到手牌</t>
   </si>
 </sst>
 </file>
@@ -1032,18 +1078,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="2" max="2" width="14.85" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.0333333333333" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
   </cols>
@@ -1063,13 +1109,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -1077,7 +1123,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
@@ -1086,44 +1132,44 @@
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>1001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>2001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>12</v>
+      <c r="A6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>1001</v>
+        <v>2002</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1134,30 +1180,16 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="D7" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2002</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1169,14 +1201,142 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="16384" width="8.66666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="21.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="23.0416666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1"/>
+    <row r="5" s="1" customFormat="1"/>
+    <row r="6" s="1" customFormat="1"/>
+    <row r="7" s="1" customFormat="1"/>
+    <row r="8" s="1" customFormat="1"/>
+    <row r="9" s="1" customFormat="1"/>
+    <row r="10" s="1" customFormat="1"/>
+    <row r="11" s="1" customFormat="1"/>
+    <row r="12" s="1" customFormat="1"/>
+    <row r="13" s="1" customFormat="1"/>
+    <row r="14" s="1" customFormat="1"/>
+    <row r="15" s="1" customFormat="1"/>
+    <row r="16" s="1" customFormat="1"/>
+    <row r="17" s="1" customFormat="1"/>
+    <row r="18" s="1" customFormat="1"/>
+    <row r="19" s="1" customFormat="1"/>
+    <row r="20" s="1" customFormat="1"/>
+    <row r="21" s="1" customFormat="1"/>
+    <row r="22" s="1" customFormat="1"/>
+    <row r="23" s="1" customFormat="1"/>
+    <row r="24" s="1" customFormat="1"/>
+    <row r="25" s="1" customFormat="1"/>
+    <row r="26" s="1" customFormat="1"/>
+    <row r="27" s="1" customFormat="1"/>
+    <row r="28" s="1" customFormat="1"/>
+    <row r="29" s="1" customFormat="1"/>
+    <row r="30" s="1" customFormat="1"/>
+    <row r="31" s="1" customFormat="1"/>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/3DCard/Assets/Editor/ExcelToSO/配置表.xlsx
+++ b/3DCard/Assets/Editor/ExcelToSO/配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌配置" sheetId="1" r:id="rId1"/>
@@ -1080,10 +1080,10 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1203,13 +1203,14 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="8.66666666666667" style="1"/>
+    <col min="1" max="1" width="14.15" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.66666666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1264,7 +1265,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>

--- a/3DCard/Assets/Editor/ExcelToSO/配置表.xlsx
+++ b/3DCard/Assets/Editor/ExcelToSO/配置表.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="卡牌配置" sheetId="1" r:id="rId1"/>
     <sheet name="可交互物体编号" sheetId="3" r:id="rId2"/>
-    <sheet name="交互组合" sheetId="2" r:id="rId3"/>
+    <sheet name="手牌交互组合" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,11 +29,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>卡牌名称</t>
   </si>
   <si>
+    <t>卡牌英文名称</t>
+  </si>
+  <si>
     <t>卡牌id</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>null</t>
   </si>
   <si>
+    <t>Null</t>
+  </si>
+  <si>
     <t>E_Entity</t>
   </si>
   <si>
@@ -55,12 +61,18 @@
     <t>石头</t>
   </si>
   <si>
+    <t>Rock</t>
+  </si>
+  <si>
     <t>Ek = 1/2mv^2</t>
   </si>
   <si>
     <t>循环</t>
   </si>
   <si>
+    <t>Circulate</t>
+  </si>
+  <si>
     <t>E_Modificatory</t>
   </si>
   <si>
@@ -70,6 +82,9 @@
     <t>打击</t>
   </si>
   <si>
+    <t>Attack</t>
+  </si>
+  <si>
     <t>E_Behavior</t>
   </si>
   <si>
@@ -79,9 +94,15 @@
     <t>投掷</t>
   </si>
   <si>
+    <t>Throw</t>
+  </si>
+  <si>
     <t>恐惧</t>
   </si>
   <si>
+    <t>Fear</t>
+  </si>
+  <si>
     <t>E_Condition</t>
   </si>
   <si>
@@ -94,9 +115,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Null</t>
-  </si>
-  <si>
     <t>Boss</t>
   </si>
   <si>
@@ -130,7 +148,7 @@
     <t>1_放下卡牌手牌到桌子上</t>
   </si>
   <si>
-    <t>2_放回卡牌从桌牌到手牌</t>
+    <t>2001_打击</t>
   </si>
 </sst>
 </file>
@@ -1078,118 +1096,140 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="14.85" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.0333333333333" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="14.85" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.0333333333333" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
         <v>1001</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
         <v>2001</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
         <v>2002</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
         <v>3001</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1215,15 +1255,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1231,7 +1271,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>10001</v>
@@ -1239,7 +1279,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>10002</v>
@@ -1247,7 +1287,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>10003</v>
@@ -1265,7 +1305,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1278,35 +1318,38 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="4:4">
-      <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1"/>

--- a/3DCard/Assets/Editor/ExcelToSO/配置表.xlsx
+++ b/3DCard/Assets/Editor/ExcelToSO/配置表.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌配置" sheetId="1" r:id="rId1"/>
     <sheet name="可交互物体编号" sheetId="3" r:id="rId2"/>
     <sheet name="手牌交互组合" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>卡牌名称</t>
   </si>
@@ -46,27 +47,81 @@
     <t>卡牌描述</t>
   </si>
   <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>E_Entity</t>
+  </si>
+  <si>
+    <t>Ek = 1/2mv^2</t>
+  </si>
+  <si>
+    <t>打击</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>E_Behavior</t>
+  </si>
+  <si>
+    <t>造成x点物理伤害</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>DragedCard_ID</t>
+  </si>
+  <si>
+    <t>SelectedCard_ID</t>
+  </si>
+  <si>
+    <t>PointInteractableObj_ID</t>
+  </si>
+  <si>
+    <t>Func_ID</t>
+  </si>
+  <si>
+    <t>0_空</t>
+  </si>
+  <si>
+    <t>1_石头</t>
+  </si>
+  <si>
+    <t>10002_桌子</t>
+  </si>
+  <si>
+    <t>1_放下卡牌手牌到桌子上</t>
+  </si>
+  <si>
+    <t>2001_打击</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>E_Entity</t>
-  </si>
-  <si>
     <t>空</t>
   </si>
   <si>
-    <t>石头</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>Ek = 1/2mv^2</t>
-  </si>
-  <si>
     <t>循环</t>
   </si>
   <si>
@@ -79,18 +134,6 @@
     <t>打出的卡牌不会消耗</t>
   </si>
   <si>
-    <t>打击</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>E_Behavior</t>
-  </si>
-  <si>
-    <t>造成x点物理伤害</t>
-  </si>
-  <si>
     <t>投掷</t>
   </si>
   <si>
@@ -107,48 +150,6 @@
   </si>
   <si>
     <t>造成的伤害减少1点</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Boss</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Door</t>
-  </si>
-  <si>
-    <t>DragedCard_ID</t>
-  </si>
-  <si>
-    <t>SelectedCard_ID</t>
-  </si>
-  <si>
-    <t>PointInteractableObj_ID</t>
-  </si>
-  <si>
-    <t>Func_ID</t>
-  </si>
-  <si>
-    <t>0_空</t>
-  </si>
-  <si>
-    <t>1_石头</t>
-  </si>
-  <si>
-    <t>10002_桌子</t>
-  </si>
-  <si>
-    <t>1_放下卡牌手牌到桌子上</t>
-  </si>
-  <si>
-    <t>2001_打击</t>
   </si>
 </sst>
 </file>
@@ -768,14 +769,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1098,17 +1099,16 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="14.85" style="1" customWidth="1"/>
+    <col min="1" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="14.85" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.0333333333333" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
   </cols>
@@ -1120,7 +1120,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1131,106 +1131,50 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2002</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3001</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1244,52 +1188,52 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="14.15" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.66666666666667" style="1"/>
+    <col min="1" max="1" width="14.15" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="8.66666666666667" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
         <v>10001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
         <v>10002</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
         <v>10003</v>
       </c>
     </row>
@@ -1318,68 +1262,211 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1"/>
+    <row r="5" s="3" customFormat="1"/>
+    <row r="6" s="3" customFormat="1"/>
+    <row r="7" s="3" customFormat="1"/>
+    <row r="8" s="3" customFormat="1"/>
+    <row r="9" s="3" customFormat="1"/>
+    <row r="10" s="3" customFormat="1"/>
+    <row r="11" s="3" customFormat="1"/>
+    <row r="12" s="3" customFormat="1"/>
+    <row r="13" s="3" customFormat="1"/>
+    <row r="14" s="3" customFormat="1"/>
+    <row r="15" s="3" customFormat="1"/>
+    <row r="16" s="3" customFormat="1"/>
+    <row r="17" s="3" customFormat="1"/>
+    <row r="18" s="3" customFormat="1"/>
+    <row r="19" s="3" customFormat="1"/>
+    <row r="20" s="3" customFormat="1"/>
+    <row r="21" s="3" customFormat="1"/>
+    <row r="22" s="3" customFormat="1"/>
+    <row r="23" s="3" customFormat="1"/>
+    <row r="24" s="3" customFormat="1"/>
+    <row r="25" s="3" customFormat="1"/>
+    <row r="26" s="3" customFormat="1"/>
+    <row r="27" s="3" customFormat="1"/>
+    <row r="28" s="3" customFormat="1"/>
+    <row r="29" s="3" customFormat="1"/>
+    <row r="30" s="3" customFormat="1"/>
+    <row r="31" s="3" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="6.58333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.4166666666667" customWidth="1"/>
+    <col min="5" max="5" width="18.9166666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C6" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C7" s="3">
+        <v>3001</v>
+      </c>
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-    <row r="22" s="1" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
-    <row r="24" s="1" customFormat="1"/>
-    <row r="25" s="1" customFormat="1"/>
-    <row r="26" s="1" customFormat="1"/>
-    <row r="27" s="1" customFormat="1"/>
-    <row r="28" s="1" customFormat="1"/>
-    <row r="29" s="1" customFormat="1"/>
-    <row r="30" s="1" customFormat="1"/>
-    <row r="31" s="1" customFormat="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/3DCard/Assets/Editor/ExcelToSO/配置表.xlsx
+++ b/3DCard/Assets/Editor/ExcelToSO/配置表.xlsx
@@ -1102,7 +1102,7 @@
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
